--- a/Database.xlsx
+++ b/Database.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rishikesh Kumar\Dropbox\My PC (LAPTOP-KP31EEKV)\Desktop\ourwebsite\Quality_education\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adars\OneDrive\Desktop\Github Repository\Quality_education\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EABE6F9-E510-4579-A392-7913F40CAE91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BC95D258-9D9C-4E23-BE1F-25F234C9898F}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="82">
   <si>
     <t>User</t>
   </si>
@@ -129,13 +129,163 @@
   </si>
   <si>
     <t>varchar(100)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">College </t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Stream</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID </t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Id </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name </t>
+  </si>
+  <si>
+    <t>StreamID</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>Type(Book(PDF), Videos, Notes, Links)</t>
+  </si>
+  <si>
+    <t>SubjectID</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>College Name</t>
+  </si>
+  <si>
+    <t>Branch</t>
+  </si>
+  <si>
+    <t>Semester</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pages </t>
+  </si>
+  <si>
+    <t>Login/Signup</t>
+  </si>
+  <si>
+    <t>Landing Page</t>
+  </si>
+  <si>
+    <t>Home Page</t>
+  </si>
+  <si>
+    <t>Profile Page</t>
+  </si>
+  <si>
+    <t>Colleges List</t>
+  </si>
+  <si>
+    <t>Available Links</t>
+  </si>
+  <si>
+    <t>CSE</t>
+  </si>
+  <si>
+    <t>Sem 1</t>
+  </si>
+  <si>
+    <t>Sem 2</t>
+  </si>
+  <si>
+    <t>Sem 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sem 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sem 5 </t>
+  </si>
+  <si>
+    <t>Sem 6</t>
+  </si>
+  <si>
+    <t>BEEE</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1ddtskRF20duWGYPBlCOv_IsuINNkDK5a?usp=sharing</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1t7FqoEVsxlTWBwsuFpyOgygBrvWtdmRD?usp=sharing</t>
+  </si>
+  <si>
+    <t>Information Technologies</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1MrVzaHNJO57NVheYuAIugj5tJW0t6zZq?usp=sharing</t>
+  </si>
+  <si>
+    <t>Maths</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1d9BaoxVbHkH8cGe58_E3rFY6exG9EHFi?usp=sharing</t>
+  </si>
+  <si>
+    <t>Physics</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1Cc-TybuffjoCBQt1r1I70mJ7h-3EuREZ?usp=sharing</t>
+  </si>
+  <si>
+    <t>WorkShop</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1TuSQJHELRH6O0qZZPI5vSJCrB8Ck-ITD?usp=sharing</t>
+  </si>
+  <si>
+    <t>Engineering Drawings</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1s2ye1gazBeOmp4ytvettsCc0-_3Rsm_p?usp=sharing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,8 +301,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -171,6 +343,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -184,12 +374,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,27 +709,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F58FAE9-A5C3-4595-855E-9CE5E2D727BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="2" style="2" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
@@ -543,7 +749,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -575,7 +781,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -595,7 +801,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -615,7 +821,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>12</v>
       </c>
@@ -635,7 +841,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>14</v>
       </c>
@@ -646,7 +852,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>16</v>
       </c>
@@ -657,7 +863,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>17</v>
       </c>
@@ -668,7 +874,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>18</v>
       </c>
@@ -679,7 +885,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>19</v>
       </c>
@@ -690,7 +896,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>20</v>
       </c>
@@ -701,7 +907,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>21</v>
       </c>
@@ -716,4 +922,234 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="W22" sqref="W22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="11" max="11" width="9.140625" style="5"/>
+    <col min="15" max="15" width="9.140625" style="5"/>
+    <col min="25" max="25" width="9.140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="9"/>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" t="s">
+        <v>56</v>
+      </c>
+      <c r="U3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z4" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB4" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC4" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD4" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" t="s">
+        <v>48</v>
+      </c>
+      <c r="M5" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q5" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="R5" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="S5" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="T5" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="U5" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="V5" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="W5" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="X5" s="11"/>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" t="s">
+        <v>49</v>
+      </c>
+      <c r="M6" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q6" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="R6" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="S6" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="T6" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="U6" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="V6" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="W6" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="X6" s="12"/>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="I8" t="s">
+        <v>51</v>
+      </c>
+      <c r="M8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="I9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="I10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>